--- a/pred_ohlcv/54_21/2020-01-11 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 CON ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-3594833.595565897</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-3492207.520565897</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-3450656.475565897</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3388580.215565898</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-3363781.750565898</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-3438874.000565898</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-3371791.590565898</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3491939.190565898</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-3491939.190565898</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3545004.380565898</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3472415.205565898</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-3406334.025565898</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3352267.605565898</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3397823.570565898</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3453892.450565897</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3497077.502565897</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3560655.607565897</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3623733.097565897</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-3506088.572565897</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3555649.457565897</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3521107.022565897</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3590692.507565897</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3639252.162565897</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3632724.142565897</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3690326.192465897</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3628249.932465897</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3594208.112465897</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3662291.752465897</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3627248.702465897</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3627771.202565897</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3488457.194685003</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3414366.174685003</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3489854.911685003</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3443297.716685004</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3504372.746685003</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3428279.266685003</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3396740.521685003</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3538915.181685003</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3474335.846685003</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3529904.111685004</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3589477.296685004</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3536412.106685004</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3463822.931685004</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3529904.111685004</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-3475837.691685004</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3429732.011685004</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3485800.891685004</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3536363.006685004</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3372161.286685004</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3498816.881685004</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-3433236.316685004</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3381172.356685004</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3430733.241685004</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3549378.996685004</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3479793.511685004</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3430825.354685004</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3463865.944685004</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3545966.804685004</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3466369.019685003</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3527944.664685003</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3409799.524685003</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-3338712.194685003</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-3395281.689685003</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-3353630.317685003</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-3313080.502685003</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-3384668.447685003</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-3342116.172685003</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-3377659.837685003</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-3341114.942685003</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-3297561.437685004</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3368148.152685003</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3425218.262685003</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3383322.794685003</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-3383322.794685003</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-3284201.024685003</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-3344274.824685003</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-3393335.094685003</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-3346277.284685003</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-3431381.834685003</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-3489953.789685003</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-3425875.069685003</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-3464422.424685003</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-3541517.134685003</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-3593080.479685003</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-3518633.021685003</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-3581209.896685003</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-3516129.946685003</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-3589219.736685003</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-3648292.306685003</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-3752420.226685002</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-3720380.866685003</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-3806486.646685002</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-3738903.621685002</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-3687240.153685003</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-3727289.353685003</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-3660707.558685003</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-3630170.043685003</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-3596628.838685003</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-3631171.273685003</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-3594125.763685003</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-3637178.653685003</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-3565090.093685003</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3613149.133685003</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3691745.688685003</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3771844.088685003</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3800879.758685003</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-3740366.824685003</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-3695311.474685003</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-3807358.896285003</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-3754794.321285003</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3816870.581285003</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-3782828.761285003</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-3885955.451285003</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-3841901.331285003</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-3841317.834285003</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-3901892.249285003</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-4050574.904285002</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-4004017.709285003</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-4065092.739285002</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-3816031.029785003</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-3847569.774785003</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-3772477.524785003</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-3904139.269785003</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-3959707.534785003</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-4019280.719785003</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-3966215.529785003</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-3893626.354785003</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-3959707.534785003</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4013773.954785003</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-4065766.291285004</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4121835.171285003</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-5362005.183585003</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-5309953.607585005</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-5091256.072485005</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-5121321.006485005</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-5125534.489985006</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-5197122.434985006</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-5154570.159985006</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-5154570.159985006</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-5401450.725685005</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-5014167.948585006</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-4777700.936985006</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-4722132.671985006</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-4662559.486985006</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-4715624.676985007</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-4701751.157785007</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-4774340.332785007</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-4741680.209785007</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-5390271.368385007</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-5312175.428385006</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-5365741.233385006</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-5398281.208385006</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-5405672.153585006</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-5342094.048585005</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-5279016.558585005</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-5344597.123585005</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-5292233.163585005</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-5341794.048585005</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-5383845.708585005</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-5307251.613585006</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-5237666.128585005</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-5189106.473585005</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-5222147.063585005</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-5272208.563585005</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-5272208.563585005</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-5272208.563585005</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-5192610.778585005</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-5192610.778585005</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-5271707.948585005</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-5310755.918585004</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-5239668.588585004</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-5296238.083585004</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-5255187.653585005</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-5295737.468585005</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-5420961.165185005</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-5420961.165185005</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-5385417.500185005</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-5633619.882185006</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-5735456.700385005</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-5678386.590385005</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-5678386.590385005</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-5298347.799785005</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-5229262.929785005</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-5306858.254785005</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-5306858.254785005</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-5306858.254785005</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-5246784.454785005</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-5246215.755785005</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-5342333.835785005</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-5342333.835785005</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-5294775.410785005</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-5353347.365785006</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-5284275.621385005</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-5245728.266385005</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-5168633.556385005</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-5168633.556385005</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-5168104.112385005</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-5289753.557385005</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-5243696.977385005</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-5243696.977385005</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-5306774.467385005</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-5251706.817385005</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-5251706.817385005</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-5302769.547385005</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-5196138.552385005</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-5196138.552385005</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-5196138.552385005</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-5231473.961385005</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-5194428.451385005</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-5237481.341385005</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-5078786.386385005</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-5118334.971385005</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-5049750.716385005</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-4963494.395985005</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-5021065.120985005</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-4976009.770985005</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-5017560.815985005</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-4964996.240985005</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-4964996.240985005</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-5068074.871985005</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-5068074.871985005</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-5024020.751985005</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-5084595.166985005</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-5010504.146985006</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-4459741.023179858</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-4701437.453179859</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-4637358.733179859</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-4675906.088179859</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-4804564.143179859</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-4730773.738179859</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-4793350.613179859</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-4596108.303179858</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-4550051.723179858</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-4550051.723179858</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-4550051.723179858</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-4581089.853179858</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-4446022.203179858</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-4497084.933179858</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-4448622.448179858</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-4520410.393179857</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-4618530.933179857</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-4550586.799279859</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-5700925.625279863</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-5633689.649779864</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-5449463.329779864</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-5515544.509779864</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-5514973.742779864</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-5569040.162779864</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-5649639.177779865</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-5697179.152779864</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-5847257.257779865</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-5755349.767779864</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-5689769.202779864</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-5781540.633679864</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-5731979.748679864</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-5774031.408679864</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-5697437.313679865</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-5767022.798679865</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-5595422.553679865</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-5645484.053679865</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-5683530.793679865</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-5763616.893679865</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-5684379.551679865</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-5622803.906679865</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-5701901.076679865</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-5812036.376679865</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-5868605.871679865</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-5909656.301679865</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-5869106.486679864</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-5754966.266679864</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-5719422.601679864</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-5755967.496679864</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-5755967.496679864</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-5813430.088679864</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-5849474.368679864</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-5925067.233679865</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-5925067.233679865</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-5844166.178279865</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-5844166.178279865</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-5784092.378279865</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-5735032.108279865</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-5782089.918279865</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-5819636.043279865</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-5772077.618279865</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-5830649.573279865</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-5830649.573279865</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-5830649.573279865</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-5907744.283279865</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-5907744.283279865</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-5997278.388279865</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-5997278.388279865</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-6081085.059279866</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-6081085.059279866</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-6361125.970379866</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-6296046.020379866</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-6296046.020379866</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-6355118.590379866</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-6309062.010379866</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-6250990.670379866</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-6283030.030379866</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-6251991.900379866</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-6251991.900379866</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-6319574.925379867</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-6268512.195379866</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-6227710.070379866</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-6355145.389579866</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-6388686.594579866</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-6354144.159579867</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-6391189.669579866</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-6434242.559579866</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-6344291.415579866</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-6296232.375579866</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-6296232.375579866</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-6216133.975579865</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-6255682.560579865</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-6324266.815579865</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-6266696.090579866</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-6311751.440579865</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-6353743.026579865</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-6301178.451579865</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-6239102.191579865</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-6464102.439079865</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-6361976.979079865</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-6326933.929079865</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-6370988.049079865</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-6446562.464079865</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-6372471.444079866</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-6453327.601479866</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-6499884.796479866</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-6723055.697779866</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-6661980.667779866</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-6738074.147779866</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-6706535.402779866</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-6631443.152779866</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-6564360.742779866</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-6499781.407779866</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-6555349.672779866</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-6502284.482779865</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-6574873.657779865</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-6640954.837779865</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-6586888.417779865</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-6633349.494779864</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-6631952.846735172</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-6688021.726735172</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-6637459.611735172</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-6715555.551735172</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-6769121.356735172</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-6673003.276735172</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-6607132.490645786</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-7283506.521235172</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-7584265.241935172</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-7875163.534835172</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-6771114.966835172</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-6636202.126835172</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-6797193.839135172</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-6943935.84883146</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-6895376.19383146</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-7463647.019131459</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-7413585.519131459</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-7523270.08033146</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-7842765.107331459</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-18462406.37978046</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-18387314.12978046</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-18262561.71978046</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-18327141.05478046</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-18327141.05478046</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-18327141.05478046</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-18380206.24478046</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-18307617.06978046</v>
       </c>
       <c r="H915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-18446275.40978046</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-18644817.01678045</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-18639210.40138045</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-18663623.15828045</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-18691673.15828045</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-18824586.24718045</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-18808610.62118046</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-19030883.68118045</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-18986328.94618046</v>
       </c>
       <c r="H957">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-18931761.91118046</v>
       </c>
       <c r="H958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-18993838.17118046</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-18989332.63618046</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-11 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 CON ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>-3354538.395565898</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3286454.755565898</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3472182.920565898</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-3396089.440565898</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-3363781.750565898</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-3438874.000565898</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3491939.190565898</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-3491939.190565898</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3545004.380565898</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3352267.605565898</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3397823.570565898</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3497077.502565897</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3560655.607565897</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3623733.097565897</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3590692.507565897</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3693799.172565897</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-3773396.957565897</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3632724.142565897</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3671772.112565897</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3600684.782565897</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3690326.192465897</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3662291.752465897</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3627248.702465897</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3627771.202565897</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3414366.174685003</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3489854.911685003</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3443297.716685004</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3504372.746685003</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3428279.266685003</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3396740.521685003</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3538915.181685003</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3474335.846685003</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3529904.111685004</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3589477.296685004</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3529904.111685004</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-3475837.691685004</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3429732.011685004</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3485800.891685004</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3536363.006685004</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3498816.881685004</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-3433236.316685004</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3381172.356685004</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3430733.241685004</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3549378.996685004</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3479793.511685004</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3430825.354685004</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3463865.944685004</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3545966.804685004</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3466369.019685003</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3527944.664685003</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-3338712.194685003</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-3395281.689685003</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-3384668.447685003</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-3377659.837685003</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3425218.262685003</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-3284201.024685003</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-3344274.824685003</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-3431381.834685003</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-3489953.789685003</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-3425875.069685003</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-3464422.424685003</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-3541517.134685003</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-3593080.479685003</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-3518633.021685003</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-3581209.896685003</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-3516129.946685003</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-3589219.736685003</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-3648292.306685003</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-3752420.226685002</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-3806486.646685002</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-3738903.621685002</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-3687240.153685003</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-3727289.353685003</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-3660707.558685003</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-3630170.043685003</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-3596628.838685003</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-3631171.273685003</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-3594125.763685003</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-3637178.653685003</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-3565090.093685003</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3613149.133685003</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3691745.688685003</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3800879.758685003</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-3740366.824685003</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-3695311.474685003</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-3807358.896285003</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-3754794.321285003</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3816870.581285003</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-3782828.761285003</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-3885955.451285003</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-3841901.331285003</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-3841317.834285003</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-3901892.249285003</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-4050574.904285002</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-4004017.709285003</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-4065092.739285002</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-3816031.029785003</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-3847569.774785003</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-3904139.269785003</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-3959707.534785003</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-4019280.719785003</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-3959707.534785003</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4013773.954785003</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-4065766.291285004</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4121835.171285003</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-5362005.183585003</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-5113634.183085006</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-5125534.489985006</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-5197122.434985006</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-5154570.159985006</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-5154570.159985006</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-5441561.896685005</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-5401450.725685005</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-5014167.948585006</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-4777700.936985006</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-4722132.671985006</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-4662559.486985006</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-4715624.676985007</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-4701751.157785007</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-4774340.332785007</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-4741680.209785007</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-5390271.368385007</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-5312175.428385006</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-5365741.233385006</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-5398281.208385006</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-5405672.153585006</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-5342094.048585005</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-5279016.558585005</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-5344597.123585005</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-5292233.163585005</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-5341794.048585005</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-5383845.708585005</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-5307251.613585006</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-5237666.128585005</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-5189106.473585005</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-5222147.063585005</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-5272208.563585005</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-5272208.563585005</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-5272208.563585005</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-5192610.778585005</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-5192610.778585005</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-5271707.948585005</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-5310755.918585004</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-5239668.588585004</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-5296238.083585004</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-5255187.653585005</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-5295737.468585005</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-5420961.165185005</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-5420961.165185005</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-5385417.500185005</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-5633619.882185006</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-5735456.700385005</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-5678386.590385005</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-5678386.590385005</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-5298347.799785005</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-5229262.929785005</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-5306858.254785005</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-5306858.254785005</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-5306858.254785005</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-5246784.454785005</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-5246215.755785005</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-5342333.835785005</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-5342333.835785005</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-5294775.410785005</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-5353347.365785006</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-5284275.621385005</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-5245728.266385005</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-5168633.556385005</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-5168633.556385005</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-5168104.112385005</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-5289753.557385005</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-5243696.977385005</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-5243696.977385005</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-5306774.467385005</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-5251706.817385005</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-5251706.817385005</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-5302769.547385005</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-5196138.552385005</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-5196138.552385005</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-5196138.552385005</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-5230680.987385005</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-5231473.961385005</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-5194428.451385005</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-5237481.341385005</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-5078786.386385005</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-5118334.971385005</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-5049750.716385005</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-4963494.395985005</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-5021065.120985005</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-4976009.770985005</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-5017560.815985005</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-4964996.240985005</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-4964996.240985005</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-5068074.871985005</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-5068074.871985005</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-5024020.751985005</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-5084595.166985005</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-5010504.146985006</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-4524069.214285005</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-4459741.023179858</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-4577886.163179858</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-4649173.493179858</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-4776830.318179859</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-4742287.883179859</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-4633353.813179859</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-4701437.453179859</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-4637358.733179859</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-4675906.088179859</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-4730773.738179859</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-4793350.613179859</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-4596108.303179858</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-4550051.723179858</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-4581089.853179858</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-4446022.203179858</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-4497084.933179858</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-4497084.933179858</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-4448622.448179858</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-5700925.625279863</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-5633689.649779864</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-5449463.329779864</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-5515544.509779864</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-5514973.742779864</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-5569040.162779864</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-5649639.177779865</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-5697179.152779864</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-5847257.257779865</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-5755349.767779864</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-5689769.202779864</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-5781540.633679864</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-5731979.748679864</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-5774031.408679864</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-5697437.313679865</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-5767022.798679865</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-5595422.553679865</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-5645484.053679865</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-5683530.793679865</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-5763616.893679865</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-5684379.551679865</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-5622803.906679865</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-5701901.076679865</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-5812036.376679865</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-5868605.871679865</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-5909656.301679865</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-5869106.486679864</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-5754966.266679864</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-5719422.601679864</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-5755967.496679864</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-5755967.496679864</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-5813430.088679864</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-5849474.368679864</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-5925067.233679865</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-5925067.233679865</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-5844166.178279865</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-5844166.178279865</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-5784092.378279865</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-5735032.108279865</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-5782089.918279865</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-5819636.043279865</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-5772077.618279865</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-5830649.573279865</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-5830649.573279865</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-5830649.573279865</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-5907744.283279865</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-5907744.283279865</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-5997278.388279865</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-5997278.388279865</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-6081085.059279866</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-6081085.059279866</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-6361125.970379866</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-6296046.020379866</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-6296046.020379866</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-6355118.590379866</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-6309062.010379866</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-6250990.670379866</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-6283030.030379866</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-6251991.900379866</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-6251991.900379866</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-6319574.925379867</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-6268512.195379866</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-6227710.070379866</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-6355145.389579866</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-6388686.594579866</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-6354144.159579867</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-6391189.669579866</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-6434242.559579866</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-6344291.415579866</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-6296232.375579866</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-6296232.375579866</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-6216133.975579865</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-6255682.560579865</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-6324266.815579865</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-6266696.090579866</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-6311751.440579865</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-6353743.026579865</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-6301178.451579865</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-6239102.191579865</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-6464102.439079865</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-6361976.979079865</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-6326933.929079865</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-6370988.049079865</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-6446562.464079865</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-6372471.444079866</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-6453327.601479866</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-6499884.796479866</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-6723055.697779866</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-6661980.667779866</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-6738074.147779866</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-6706535.402779866</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-6631443.152779866</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-6564360.742779866</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-6499781.407779866</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-6555349.672779866</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-6502284.482779865</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-6574873.657779865</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-6640954.837779865</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-6586888.417779865</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-6633349.494779864</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-6631952.846735172</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-6688021.726735172</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-6637459.611735172</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-6715555.551735172</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-6769121.356735172</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-6673003.276735172</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-6607132.490645786</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-7283506.521235172</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-7584265.241935172</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-7875163.534835172</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-6771114.966835172</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-6636202.126835172</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-6797193.839135172</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-6943935.84883146</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-6895376.19383146</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-7463647.019131459</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-7413585.519131459</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-7523270.08033146</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-7842765.107331459</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-18462406.37978046</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-18387314.12978046</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-18262561.71978046</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-18327141.05478046</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-18327141.05478046</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-18327141.05478046</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-18380206.24478046</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-18307617.06978046</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-18374186.84978046</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-18446275.40978046</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-18413735.43478046</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-18350157.32978046</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-18287079.83978046</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-18353573.52678046</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-18559712.46678045</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-18677857.60678045</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-18789042.58218046</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-18884203.48618045</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-18953288.35618046</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-18986328.94618046</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-18931761.91118046</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-19040895.98118046</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-18989332.63618046</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
